--- a/data/trans_camb/P43_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P43_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 3,56</t>
+          <t>-3,6; 2,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 0,48</t>
+          <t>-4,27; 0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 5,87</t>
+          <t>-1,94; 3,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 5,61</t>
+          <t>-3,24; 3,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 5,97</t>
+          <t>-2,36; 3,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 4,31</t>
+          <t>-1,96; 3,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,7</t>
+          <t>-1,91; 3,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 1,29</t>
+          <t>-1,7; 4,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,7</t>
+          <t>-4,11; 1,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 2,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 2,15</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 1,5</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 3,31</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 1,38</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 2,33</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>-7,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,73%</t>
+          <t>-24,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>-1,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>-14,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-4,58%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16,28%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-8,28%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 32,17</t>
+          <t>-42,63; 38,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 4,82</t>
+          <t>-51,04; 18,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 53,57</t>
+          <t>-23,63; 72,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 36,24</t>
+          <t>-32,36; 51,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 40,19</t>
+          <t>-26,51; 58,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 28,37</t>
+          <t>-21,48; 51,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 18,91</t>
+          <t>-20,15; 56,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 9,59</t>
+          <t>-18,37; 63,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 27,46</t>
+          <t>-38,43; 21,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-25,73; 41,7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; 33,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-26,13; 24,2</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 53,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-28,52; 18,49</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-21,9; 34,59</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 5,13</t>
+          <t>-3,97; 3,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 8,97</t>
+          <t>-2,58; 6,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 13,18</t>
+          <t>-2,48; 6,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 4,59</t>
+          <t>-3,47; 7,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 4,09</t>
+          <t>-4,94; 6,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 10,22</t>
+          <t>-2,86; 2,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 3,27</t>
+          <t>-2,74; 2,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 4,55</t>
+          <t>0,25; 7,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 9,41</t>
+          <t>-5,19; 4,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 6,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 2,53</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 3,54</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 5,35</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 4,25</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 4,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,23%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,45%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,32%</t>
+          <t>53,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>-7,15%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,16%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,56; 51,24</t>
+          <t>-41,44; 63,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 87,55</t>
+          <t>-30,3; 107,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 121,65</t>
+          <t>-29,73; 118,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 33,92</t>
+          <t>-32,07; 108,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 28,89</t>
+          <t>-37,55; 88,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 68,73</t>
+          <t>-33,85; 53,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 25,4</t>
+          <t>-32,06; 50,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 36,45</t>
+          <t>1,49; 124,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 70,11</t>
+          <t>-42,85; 49,22</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-35,63; 97,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-25,86; 43,03</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-20,71; 62,43</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-5,84; 86,34</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-30,18; 49,87</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-25,91; 59,43</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,43</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 15,43</t>
+          <t>-3,37; 9,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 10,51</t>
+          <t>-5,02; 7,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>2,62; 32,67</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,57; 16,4</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 12,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-4,94; 5,92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 6,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 9,74</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,33; 12,0</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-11,18; 6,9</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 5,89</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 4,33</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 17,42</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>172,54%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>44,99%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,54%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-12,38%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27,35%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>111,87%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,6; 166,54</t>
+          <t>-37,25; 247,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 124,09</t>
+          <t>-53,04; 181,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>9,86; 699,36</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-52,4; 165,67</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 119,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-51,55; 165,69</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-61,54; 163,47</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-34,68; 273,77</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-35,27; 101,65</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-52,1; 62,05</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-30,52; 128,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-45,54; 96,86</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>14,21; 354,91</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,2</t>
+          <t>-1,99; 2,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 2,2</t>
+          <t>-2,22; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,17</t>
+          <t>-0,04; 5,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,13</t>
+          <t>-4,35; 1,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,83</t>
+          <t>-2,03; 3,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 3,97</t>
+          <t>-1,18; 2,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,95</t>
+          <t>-1,29; 2,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,3</t>
+          <t>0,41; 4,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,83</t>
+          <t>-3,73; 0,81</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 2,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 1,73</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 1,62</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 4,27</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 0,73</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 2,28</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,57%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,65%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>-9,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,2%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-9,49%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>-15,18%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>34,32%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-12,17%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 27,31</t>
+          <t>-23,71; 39,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 19,32</t>
+          <t>-26,79; 40,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 51,59</t>
+          <t>-1,12; 91,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 20,14</t>
+          <t>-36,99; 23,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 18,0</t>
+          <t>-21,16; 44,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 24,2</t>
+          <t>-14,52; 37,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 14,12</t>
+          <t>-15,45; 36,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 9,4</t>
+          <t>4,09; 75,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 26,08</t>
+          <t>-34,27; 10,28</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-19,97; 43,09</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; 26,18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 24,66</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 63,62</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-29,25; 8,36</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; 31,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
